--- a/Shematics/HDsEMG V1.0/Project Outputs for HDsEMG V1.0/HDsEMG V1.0.xlsx
+++ b/Shematics/HDsEMG V1.0/Project Outputs for HDsEMG V1.0/HDsEMG V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rnikpalj\Desktop\Diplomski\Shematics\HDsEMG V1.0\Project Outputs for HDsEMG V1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30612324-C76C-4D07-9BBD-1124A6B8FF1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DD76074-1E9D-41E4-96A9-4D6F1632E293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24480" yWindow="564" windowWidth="21600" windowHeight="11208" xr2:uid="{5A36E71E-4A3A-4A86-AA20-8BCA97525218}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9024" xr2:uid="{C23996DD-2F15-4837-95D7-F541C26ADB90}"/>
   </bookViews>
   <sheets>
     <sheet name="HDsEMG V1.0" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="69">
   <si>
     <t>Comment</t>
   </si>
@@ -78,34 +78,40 @@
     <t>C1, C2, C3, C4, C5, C6, C7, C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19, C20, C21, C22, C23, C24, C25, C26, C27, C28, C29, C30, C31, C32, C38, C45</t>
   </si>
   <si>
-    <t>CAPC1608X90</t>
+    <t>C0603</t>
   </si>
   <si>
     <t>Cap</t>
   </si>
   <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>C34, C35, C37, C40, C42, C43, C47, C49, C51, C53, C55, C56, C58, C59, C80, C82</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>C36, C41</t>
+  </si>
+  <si>
     <t>1nF</t>
   </si>
   <si>
-    <t>C33, C39</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>C34, C35, C37, C40, C42, C43, C47, C49, C51, C53, C55, C56, C58, C59</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>C36, C41</t>
+    <t>C39</t>
   </si>
   <si>
     <t>100nF</t>
   </si>
   <si>
-    <t>C44, C48, C50, C54</t>
+    <t>C44, C48, C50, C54, C81, C83</t>
   </si>
   <si>
     <t>0.1uF</t>
@@ -120,7 +126,7 @@
     <t>C57, C60, C61, C62</t>
   </si>
   <si>
-    <t>330nF</t>
+    <t>47nF</t>
   </si>
   <si>
     <t>C63, C64, C65, C66, C67, C68, C69, C70, C71, C72, C73, C74, C75, C76, C77, C78, C79</t>
@@ -135,7 +141,7 @@
     <t>D1, D2</t>
   </si>
   <si>
-    <t>QFP50P1200X1200X120-64N</t>
+    <t>ADS1298</t>
   </si>
   <si>
     <t>Header 2</t>
@@ -144,7 +150,7 @@
     <t>Header, 2-Pin</t>
   </si>
   <si>
-    <t>J1, X1</t>
+    <t>J1</t>
   </si>
   <si>
     <t>HDR1X2</t>
@@ -159,7 +165,7 @@
     <t>R1, R3, R5, R7, R9, R11, R13, R15, R17, R19, R21, R23, R25, R27, R29, R31, R39</t>
   </si>
   <si>
-    <t>RESC1608X50N</t>
+    <t>RES0603</t>
   </si>
   <si>
     <t>Res2</t>
@@ -168,7 +174,7 @@
     <t>10k</t>
   </si>
   <si>
-    <t>R2, R4, R6, R8, R10, R12, R14, R16, R18, R20, R22, R24, R26, R28, R30, R32, R33, R34, R40, R58, R59, R60, R61, R62, R63, R64, R65</t>
+    <t>R2, R4, R6, R8, R10, R12, R14, R16, R18, R20, R22, R24, R26, R28, R30, R32, R33, R34, R40, R58, R62</t>
   </si>
   <si>
     <t>47k7</t>
@@ -189,12 +195,18 @@
     <t>R37</t>
   </si>
   <si>
-    <t>47k</t>
+    <t>330k</t>
   </si>
   <si>
     <t>R41, R42, R43, R44, R45, R46, R47, R48, R49, R50, R51, R52, R53, R54, R55, R56, R57</t>
   </si>
   <si>
+    <t>0R</t>
+  </si>
+  <si>
+    <t>R66</t>
+  </si>
+  <si>
     <t>TP1</t>
   </si>
   <si>
@@ -222,49 +234,16 @@
     <t>T3</t>
   </si>
   <si>
-    <t>7-2267062-1</t>
-  </si>
-  <si>
-    <t>X2, X3</t>
-  </si>
-  <si>
-    <t>TE_7-2267062-1</t>
-  </si>
-  <si>
-    <t>Header 8</t>
-  </si>
-  <si>
-    <t>Header, 8-Pin</t>
-  </si>
-  <si>
-    <t>X4</t>
-  </si>
-  <si>
-    <t>HDR1X8</t>
-  </si>
-  <si>
-    <t>Header 4</t>
-  </si>
-  <si>
-    <t>Header, 4-Pin</t>
-  </si>
-  <si>
-    <t>X5</t>
-  </si>
-  <si>
-    <t>HDR1X4</t>
-  </si>
-  <si>
-    <t>Header 5</t>
-  </si>
-  <si>
-    <t>Header, 5-Pin</t>
-  </si>
-  <si>
-    <t>X6</t>
-  </si>
-  <si>
-    <t>HDR1X5</t>
+    <t>Header 10</t>
+  </si>
+  <si>
+    <t>Header, 10-Pin</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>HDR1X10</t>
   </si>
 </sst>
 </file>
@@ -647,20 +626,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9230456D-205E-48A3-A440-52F64E2769E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9A015A-0F75-4FB7-8F38-72FBBDFE890F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="19.7109375" customWidth="1"/>
+    <col min="1" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -680,7 +659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -700,7 +679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -720,7 +699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -737,10 +716,10 @@
         <v>14</v>
       </c>
       <c r="F4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -757,10 +736,10 @@
         <v>14</v>
       </c>
       <c r="F5" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -780,7 +759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -797,10 +776,10 @@
         <v>14</v>
       </c>
       <c r="F7" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -817,10 +796,10 @@
         <v>14</v>
       </c>
       <c r="F8" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -837,10 +816,10 @@
         <v>14</v>
       </c>
       <c r="F9" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -857,312 +836,292 @@
         <v>14</v>
       </c>
       <c r="F10" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="4">
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F18" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="63" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" blackAndWhite="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>